--- a/Spotify 2018 Top Songs Tournament.xlsx
+++ b/Spotify 2018 Top Songs Tournament.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleah\OneDrive\DocumentsHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F2518-9724-449C-B580-6CFB64686BFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2F67B-D19E-47F6-95F3-AD30B1F90526}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{8DBEF6DC-F6B7-4B9A-9060-E2D9857B0EF5}"/>
   </bookViews>
@@ -372,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +418,25 @@
       <color rgb="FFFF0000"/>
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -532,13 +551,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -548,52 +566,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -610,6 +589,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7125,7 +7166,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7147,613 +7188,618 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="2:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="30">
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="2:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="17" t="str">
         <f>VLOOKUP(E7,'Full List'!A:B,2,0)</f>
         <v>7 &amp; 7 - Turnpike Troubadours</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="32">
+    <row r="8" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="18">
         <f>F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+    <row r="9" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>64</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="17" t="str">
         <f>VLOOKUP(B9,'Full List'!A:B,2,0)</f>
         <v>Under Pressure - Remastered - Queen</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="H10" s="32">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="H10" s="18">
         <f>H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+    <row r="11" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>65</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="27" t="str">
         <f>VLOOKUP(B11,'Full List'!A:B,2,0)</f>
         <v>Nightswimming - R.E.M.</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="42"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>32</v>
       </c>
-      <c r="C13" s="31" t="str">
+      <c r="C13" s="17" t="str">
         <f>VLOOKUP(B13,'Full List'!A:B,2,0)</f>
         <v>Thrash Unreal - Against Me!</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="37"/>
-      <c r="H14" s="35"/>
-      <c r="J14" s="32">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="18">
         <f>J27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+    <row r="15" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>97</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="27" t="str">
         <f>VLOOKUP(B15,'Full List'!A:B,2,0)</f>
         <v>Blue Rondo à la Turk - The Dave Brubeck Quartet</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="32">
+      <c r="D15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="18">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="H15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>33</v>
       </c>
-      <c r="C17" s="31" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(B17,'Full List'!A:B,2,0)</f>
         <v>Presto - Remastered - Rush</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>96</v>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="27" t="str">
         <f>VLOOKUP(B19,'Full List'!A:B,2,0)</f>
         <v>Gold Digger - Kanye West</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="42"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="E21" s="30">
+      <c r="D19" s="20"/>
+      <c r="E19" s="28"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="E21" s="16">
         <v>16</v>
       </c>
-      <c r="F21" s="31" t="str">
+      <c r="F21" s="17" t="str">
         <f>VLOOKUP(E21,'Full List'!A:B,2,0)</f>
         <v>Tie My Pecker to My Leg - Mojo Nixon</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43"/>
-      <c r="F22" s="44">
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="29"/>
+      <c r="F22" s="30">
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="L22" s="44">
+      <c r="J22" s="21"/>
+      <c r="L22" s="30">
         <f>L45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+    <row r="23" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>49</v>
       </c>
-      <c r="C23" s="31" t="str">
+      <c r="C23" s="17" t="str">
         <f>VLOOKUP(B23,'Full List'!A:B,2,0)</f>
         <v>Golden Days - The Damnwells</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="H24" s="32">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="H24" s="18">
         <f>H30</f>
         <v>0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="J24" s="21"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>80</v>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="27" t="str">
         <f>VLOOKUP(B25,'Full List'!A:B,2,0)</f>
         <v>The Housefire - Turnpike Troubadours</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="H26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="E27" s="30">
+      <c r="H25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="E27" s="16">
         <v>17</v>
       </c>
-      <c r="F27" s="31" t="str">
+      <c r="F27" s="17" t="str">
         <f>VLOOKUP(E27,'Full List'!A:B,2,0)</f>
         <v>Barometer Soup - Jimmy Buffett</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="41"/>
-      <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="F28" s="44">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="27"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29"/>
+      <c r="F28" s="30">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="H28" s="21"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
         <v>48</v>
       </c>
-      <c r="C29" s="31" t="str">
+      <c r="C29" s="17" t="str">
         <f>VLOOKUP(B29,'Full List'!A:B,2,0)</f>
         <v>Leave A Trace - CHVRCHES</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="39"/>
-      <c r="H29" s="35"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="41"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="28"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>81</v>
       </c>
-      <c r="C31" s="41" t="str">
+      <c r="C31" s="27" t="str">
         <f>VLOOKUP(B31,'Full List'!A:B,2,0)</f>
         <v>Pain - The War On Drugs</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="42"/>
-      <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="E33" s="30">
+      <c r="D31" s="20"/>
+      <c r="E31" s="28"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="E33" s="16">
         <v>8</v>
       </c>
-      <c r="F33" s="31" t="str">
+      <c r="F33" s="17" t="str">
         <f>VLOOKUP(E33,'Full List'!A:B,2,0)</f>
         <v>Adagio for Strings, Op. 11 - Samuel Barber</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
-      <c r="F34" s="44">
+      <c r="L33" s="25"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="F34" s="30">
         <f>F36</f>
         <v>0</v>
       </c>
-      <c r="L34" s="39"/>
-    </row>
-    <row r="35" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>57</v>
       </c>
-      <c r="C35" s="31" t="str">
+      <c r="C35" s="17" t="str">
         <f>VLOOKUP(B35,'Full List'!A:B,2,0)</f>
         <v>Same Old Fucking Thing - Matt Hill and the Deep Fryed 2</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="L35" s="39"/>
-    </row>
-    <row r="36" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="H36" s="44">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="H36" s="30">
         <f>H42</f>
         <v>0</v>
       </c>
-      <c r="L36" s="39"/>
-    </row>
-    <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>72</v>
       </c>
-      <c r="C37" s="41" t="str">
+      <c r="C37" s="27" t="str">
         <f>VLOOKUP(B37,'Full List'!A:B,2,0)</f>
         <v>Rural Route - Chris Knight</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="42"/>
-      <c r="H37" s="39"/>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="H38" s="39"/>
-      <c r="L38" s="39"/>
-    </row>
-    <row r="39" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="E39" s="30">
+      <c r="D37" s="20"/>
+      <c r="E37" s="28"/>
+      <c r="H37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="H38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="E39" s="16">
         <v>25</v>
       </c>
-      <c r="F39" s="31" t="str">
+      <c r="F39" s="17" t="str">
         <f>VLOOKUP(E39,'Full List'!A:B,2,0)</f>
         <v>Ringing in the Year - Turnpike Troubadours</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="31"/>
-      <c r="L39" s="39"/>
-    </row>
-    <row r="40" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
-      <c r="F40" s="44">
+      <c r="H39" s="25"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="29"/>
+      <c r="F40" s="30">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="J40" s="44">
+      <c r="H40" s="25"/>
+      <c r="J40" s="30">
         <f>J50</f>
         <v>0</v>
       </c>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>40</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="17" t="str">
         <f>VLOOKUP(B41,'Full List'!A:B,2,0)</f>
         <v>Old Thing Back (feat. Ja Rule and Ralph Tresvant) - Matoma</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="L41" s="39"/>
-    </row>
-    <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
-      <c r="J42" s="39"/>
-      <c r="L42" s="39"/>
-    </row>
-    <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="J41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>89</v>
       </c>
-      <c r="C43" s="41" t="str">
+      <c r="C43" s="27" t="str">
         <f>VLOOKUP(B43,'Full List'!A:B,2,0)</f>
         <v>Sunday Table - Pink Martini</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="42"/>
-      <c r="J43" s="39"/>
-      <c r="L43" s="39"/>
-    </row>
-    <row r="44" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="J44" s="39"/>
-      <c r="L44" s="39"/>
-    </row>
-    <row r="45" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-      <c r="E45" s="30">
+      <c r="D43" s="20"/>
+      <c r="E43" s="28"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="J43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="29"/>
+      <c r="J44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="E45" s="16">
         <v>9</v>
       </c>
-      <c r="F45" s="31" t="str">
+      <c r="F45" s="17" t="str">
         <f>VLOOKUP(E45,'Full List'!A:B,2,0)</f>
         <v>Express Yourself - N.W.A.</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="F46" s="44">
+      <c r="J45" s="25"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="29"/>
+      <c r="F46" s="30">
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33">
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>56</v>
       </c>
-      <c r="C47" s="31" t="str">
+      <c r="C47" s="17" t="str">
         <f>VLOOKUP(B47,'Full List'!A:B,2,0)</f>
         <v>Clint Eastwood - Gorillaz</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="H48" s="44">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="H48" s="30">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="J48" s="39"/>
-    </row>
-    <row r="49" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
         <v>73</v>
       </c>
-      <c r="C49" s="41" t="str">
+      <c r="C49" s="27" t="str">
         <f>VLOOKUP(B49,'Full List'!A:B,2,0)</f>
         <v>Roll To Me - Del Amitri</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="42"/>
-      <c r="H49" s="39"/>
-      <c r="J49" s="39"/>
-    </row>
-    <row r="50" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
-      <c r="E51" s="30">
+      <c r="D49" s="20"/>
+      <c r="E49" s="28"/>
+      <c r="H49" s="25"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="E51" s="16">
         <v>24</v>
       </c>
-      <c r="F51" s="31" t="str">
+      <c r="F51" s="17" t="str">
         <f>VLOOKUP(E51,'Full List'!A:B,2,0)</f>
         <v>All Of The Lights (Interlude) - Kanye West</v>
       </c>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="2:10" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="43"/>
-      <c r="F52" s="44">
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="2:10" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="29"/>
+      <c r="F52" s="30">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="2:10" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:10" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>41</v>
       </c>
-      <c r="C53" s="31" t="str">
+      <c r="C53" s="17" t="str">
         <f>VLOOKUP(B53,'Full List'!A:B,2,0)</f>
         <v>One Particular Harbour - Jimmy Buffett</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>88</v>
       </c>
-      <c r="C55" s="41" t="str">
+      <c r="C55" s="27" t="str">
         <f>VLOOKUP(B55,'Full List'!A:B,2,0)</f>
         <v>Planet Telex - Radiohead</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="42"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8116,7 +8162,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30" xr:uid="{C2E01E3F-931B-4043-8152-C849D353A657}">
       <formula1>$C$29:$C$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30" xr:uid="{C1E1EDC9-7CE4-4FB2-B786-B217DD39A669}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29" xr:uid="{C1E1EDC9-7CE4-4FB2-B786-B217DD39A669}">
       <formula1>$F$27:$F$28</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J27" xr:uid="{2726007B-6403-423C-AB7C-7CA54CAAC8A6}">
@@ -8134,7 +8180,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{ABD451BE-448A-49E3-9862-8DAAAAD94C02}">
       <formula1>$F$33:$F$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{11643D75-B395-4181-AF44-8F2BB0312E0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{11643D75-B395-4181-AF44-8F2BB0312E0A}">
       <formula1>$F$39:$F$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39" xr:uid="{2FDFC4A4-4C6D-40B1-B638-55BDD2ECCA2A}">
@@ -8171,9 +8217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2D005C-A00B-4F78-95CD-DC58E23F275D}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8196,626 +8242,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="30">
+      <c r="A4" s="10"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
         <v>4</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="17" t="str">
         <f>VLOOKUP(E7,'Full List'!A:B,2,0)</f>
         <v>The Day John Henry Died - Drive-By Truckers</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="32">
+    <row r="8" spans="1:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="18">
         <f>F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+    <row r="9" spans="1:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>61</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="17" t="str">
         <f>VLOOKUP(B9,'Full List'!A:B,2,0)</f>
         <v>Africa - Toto</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="H10" s="32">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="H10" s="18">
         <f>H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>68</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="27" t="str">
         <f>VLOOKUP(B11,'Full List'!A:B,2,0)</f>
         <v>Transgender Dysphoria Blues - Against Me!</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="42"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>29</v>
       </c>
-      <c r="C13" s="31" t="str">
+      <c r="C13" s="17" t="str">
         <f>VLOOKUP(B13,'Full List'!A:B,2,0)</f>
         <v>Cry Lonely - Chris Knight</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="37"/>
-      <c r="H14" s="35"/>
-      <c r="J14" s="32">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="18">
         <f>J27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>100</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="27" t="str">
         <f>VLOOKUP(B15,'Full List'!A:B,2,0)</f>
         <v>Anyone’s Ghost - The National</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="32">
+      <c r="D15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="18">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="H15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>36</v>
       </c>
-      <c r="C17" s="31" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(B17,'Full List'!A:B,2,0)</f>
         <v>The Bird Hunters - Turnpike Troubadours</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>93</v>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="27" t="str">
         <f>VLOOKUP(B19,'Full List'!A:B,2,0)</f>
         <v>The Mission: Gabriel's Oboe - Ennio Morricone</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="42"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="E21" s="30">
+      <c r="D19" s="20"/>
+      <c r="E19" s="28"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="E21" s="16">
         <v>13</v>
       </c>
-      <c r="F21" s="31" t="str">
+      <c r="F21" s="17" t="str">
         <f>VLOOKUP(E21,'Full List'!A:B,2,0)</f>
         <v>All Of The Lights - Kanye West</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43"/>
-      <c r="F22" s="44">
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="29"/>
+      <c r="F22" s="30">
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="L22" s="44">
+      <c r="J22" s="21"/>
+      <c r="L22" s="30">
         <f>L45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+    <row r="23" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>52</v>
       </c>
-      <c r="C23" s="31" t="str">
+      <c r="C23" s="17" t="str">
         <f>VLOOKUP(B23,'Full List'!A:B,2,0)</f>
         <v>The Jealous Kind - Chris Knight</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="H24" s="32">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="H24" s="18">
         <f>H30</f>
         <v>0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="J24" s="21"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>77</v>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="27" t="str">
         <f>VLOOKUP(B25,'Full List'!A:B,2,0)</f>
         <v>Everything In It's Right Place - Christopher O'Riley</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="H26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="E27" s="30">
+      <c r="H25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="E27" s="16">
         <v>20</v>
       </c>
-      <c r="F27" s="31" t="str">
+      <c r="F27" s="17" t="str">
         <f>VLOOKUP(E27,'Full List'!A:B,2,0)</f>
         <v>If Your Prayers Don't Get To Heaven - Brian Fallon</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="41"/>
-      <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="F28" s="44">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="27"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29"/>
+      <c r="F28" s="30">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="H28" s="21"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
         <v>45</v>
       </c>
-      <c r="C29" s="31" t="str">
+      <c r="C29" s="17" t="str">
         <f>VLOOKUP(B29,'Full List'!A:B,2,0)</f>
         <v>Dammit - blink-182</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="39"/>
-      <c r="H29" s="35"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="41"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>84</v>
       </c>
-      <c r="C31" s="41" t="str">
+      <c r="C31" s="27" t="str">
         <f>VLOOKUP(B31,'Full List'!A:B,2,0)</f>
         <v>Safari Song - Greta Van Fleet</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="42"/>
-      <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="E33" s="30">
+      <c r="D31" s="20"/>
+      <c r="E31" s="28"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="31" t="str">
+      <c r="F33" s="17" t="str">
         <f>VLOOKUP(E33,'Full List'!A:B,2,0)</f>
         <v>Hypnotize - 2014 Remastered Version - The Notorious B.I.G.</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
-      <c r="F34" s="44">
+      <c r="L33" s="25"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="F34" s="30">
         <f>F36</f>
         <v>0</v>
       </c>
-      <c r="L34" s="39"/>
-    </row>
-    <row r="35" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>60</v>
       </c>
-      <c r="C35" s="31" t="str">
+      <c r="C35" s="17" t="str">
         <f>VLOOKUP(B35,'Full List'!A:B,2,0)</f>
         <v>Lage Nom Ai - Jimmy Buffett</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="L35" s="39"/>
-    </row>
-    <row r="36" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="H36" s="44">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="H36" s="30">
         <f>H42</f>
         <v>0</v>
       </c>
-      <c r="L36" s="39"/>
-    </row>
-    <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>69</v>
       </c>
-      <c r="C37" s="41" t="str">
+      <c r="C37" s="27" t="str">
         <f>VLOOKUP(B37,'Full List'!A:B,2,0)</f>
         <v>Pay No Rent - Turnpike Troubadours</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="42"/>
-      <c r="H37" s="39"/>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="H38" s="39"/>
-      <c r="L38" s="39"/>
-    </row>
-    <row r="39" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="E39" s="30">
+      <c r="D37" s="20"/>
+      <c r="E37" s="28"/>
+      <c r="H37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="H38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="E39" s="16">
         <v>28</v>
       </c>
-      <c r="F39" s="31" t="str">
+      <c r="F39" s="17" t="str">
         <f>VLOOKUP(E39,'Full List'!A:B,2,0)</f>
         <v>Carl Perkins' Cadillac - Drive-By Truckers</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="31"/>
-      <c r="L39" s="39"/>
-    </row>
-    <row r="40" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
-      <c r="F40" s="44">
+      <c r="H39" s="25"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="29"/>
+      <c r="F40" s="30">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="J40" s="44">
+      <c r="H40" s="25"/>
+      <c r="J40" s="30">
         <f>J50</f>
         <v>0</v>
       </c>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>37</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="17" t="str">
         <f>VLOOKUP(B41,'Full List'!A:B,2,0)</f>
         <v>For the Good Times - Ray Price</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="L41" s="39"/>
-    </row>
-    <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
-      <c r="J42" s="39"/>
-      <c r="L42" s="39"/>
-    </row>
-    <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="J41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="28"/>
+      <c r="J42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>92</v>
       </c>
-      <c r="C43" s="41" t="str">
+      <c r="C43" s="27" t="str">
         <f>VLOOKUP(B43,'Full List'!A:B,2,0)</f>
         <v>Mayor Of Simpleton - 2001 Remaster - XTC</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="42"/>
-      <c r="J43" s="39"/>
-      <c r="L43" s="39"/>
-    </row>
-    <row r="44" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="J44" s="39"/>
-      <c r="L44" s="39"/>
-    </row>
-    <row r="45" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-      <c r="E45" s="30">
+      <c r="D43" s="20"/>
+      <c r="E43" s="28"/>
+      <c r="J43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="29"/>
+      <c r="J44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="E45" s="16">
         <v>12</v>
       </c>
-      <c r="F45" s="31" t="str">
+      <c r="F45" s="17" t="str">
         <f>VLOOKUP(E45,'Full List'!A:B,2,0)</f>
         <v>Never Aim To Please - Bash &amp; Pop</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="F46" s="44">
+      <c r="J45" s="25"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="29"/>
+      <c r="F46" s="30">
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33">
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>53</v>
       </c>
-      <c r="C47" s="31" t="str">
+      <c r="C47" s="17" t="str">
         <f>VLOOKUP(B47,'Full List'!A:B,2,0)</f>
         <v>Show Don't Tell - Remastered - Rush</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="H48" s="44">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="H48" s="30">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="J48" s="39"/>
-    </row>
-    <row r="49" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
         <v>76</v>
       </c>
-      <c r="C49" s="41" t="str">
+      <c r="C49" s="27" t="str">
         <f>VLOOKUP(B49,'Full List'!A:B,2,0)</f>
         <v>Fear and Trembling - Gang of Youths</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="42"/>
-      <c r="H49" s="39"/>
-      <c r="J49" s="39"/>
-    </row>
-    <row r="50" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
-      <c r="E51" s="30">
+      <c r="D49" s="20"/>
+      <c r="E49" s="28"/>
+      <c r="H49" s="25"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="E51" s="16">
         <v>21</v>
       </c>
-      <c r="F51" s="31" t="str">
+      <c r="F51" s="17" t="str">
         <f>VLOOKUP(E51,'Full List'!A:B,2,0)</f>
         <v>American Girl - Tom Petty and the Heartbreakers</v>
       </c>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="2:10" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="43"/>
-      <c r="F52" s="44">
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="2:10" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="29"/>
+      <c r="F52" s="30">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="2:10" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:10" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>44</v>
       </c>
-      <c r="C53" s="31" t="str">
+      <c r="C53" s="17" t="str">
         <f>VLOOKUP(B53,'Full List'!A:B,2,0)</f>
         <v>Ruby Soho - Rancid</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>85</v>
       </c>
-      <c r="C55" s="41" t="str">
+      <c r="C55" s="27" t="str">
         <f>VLOOKUP(B55,'Full List'!A:B,2,0)</f>
         <v>The '59 Sound (Demo Version) - The Gaslight Anthem</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="42"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N4"/>
     <mergeCell ref="B1:C4"/>
     <mergeCell ref="D1:F4"/>
     <mergeCell ref="G1:H4"/>
     <mergeCell ref="I1:J4"/>
     <mergeCell ref="K1:L4"/>
-    <mergeCell ref="M1:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="239" priority="72">
@@ -9165,7 +9213,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39" xr:uid="{C4F7002E-CF16-40B3-8D5F-ED2648953D05}">
       <formula1>$H$35:$H$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{D4078877-FA3D-4888-BBA3-96858868EE14}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{D4078877-FA3D-4888-BBA3-96858868EE14}">
       <formula1>$F$39:$F$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{69414A95-5110-4A66-99AF-DE0828E400B5}">
@@ -9183,7 +9231,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J27" xr:uid="{8F05719E-073C-45FD-87D3-82F0360AB50B}">
       <formula1>$H$23:$H$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30" xr:uid="{5F4349CD-97D4-4BD5-A307-91ED40BEB77B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29" xr:uid="{5F4349CD-97D4-4BD5-A307-91ED40BEB77B}">
       <formula1>$F$27:$F$28</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30" xr:uid="{B8228AA4-800A-4867-93EF-D9D72FF57848}">
@@ -9223,9 +9271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAC995D-BDC4-451B-8A98-E6E69C0C1539}">
   <dimension ref="B1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N51" sqref="N51"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9247,623 +9295,625 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="2:14" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="2:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="30">
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="2:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="2:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="17" t="str">
         <f>VLOOKUP(E7,'Full List'!A:B,2,0)</f>
         <v>POWER - Kanye West</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="32">
+    <row r="8" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="18">
         <f>F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+    <row r="9" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>63</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="17" t="str">
         <f>VLOOKUP(B9,'Full List'!A:B,2,0)</f>
         <v>A Favor House Atlantic - Coheed and Cambria</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="H10" s="32">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="H10" s="18">
         <f>H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+    <row r="11" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>66</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="27" t="str">
         <f>VLOOKUP(B11,'Full List'!A:B,2,0)</f>
         <v>Juicy - The Notorious B.I.G.</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="42"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>31</v>
       </c>
-      <c r="C13" s="31" t="str">
+      <c r="C13" s="17" t="str">
         <f>VLOOKUP(B13,'Full List'!A:B,2,0)</f>
         <v>The House That Heaven Built - Japandroids</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="37"/>
-      <c r="H14" s="35"/>
-      <c r="J14" s="32">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="18">
         <f>J27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+    <row r="15" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>98</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="27" t="str">
         <f>VLOOKUP(B15,'Full List'!A:B,2,0)</f>
         <v>September - Recorded at The Tracking Room Nashville - Taylor Swift</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="32">
+      <c r="D15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="18">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="H15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>34</v>
       </c>
-      <c r="C17" s="31" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(B17,'Full List'!A:B,2,0)</f>
         <v>The Camper Velourium I: Faint of Hearts - Coheed and Cambria</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>95</v>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="27" t="str">
         <f>VLOOKUP(B19,'Full List'!A:B,2,0)</f>
         <v>Autre temps - Alcest</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="42"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="E21" s="30">
+      <c r="D19" s="20"/>
+      <c r="E19" s="28"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="E21" s="16">
         <v>15</v>
       </c>
-      <c r="F21" s="31" t="str">
+      <c r="F21" s="17" t="str">
         <f>VLOOKUP(E21,'Full List'!A:B,2,0)</f>
         <v>September - Earth, Wind &amp; Fire</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43"/>
-      <c r="F22" s="44">
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="29"/>
+      <c r="F22" s="30">
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="L22" s="44">
+      <c r="J22" s="21"/>
+      <c r="L22" s="30">
         <f>L45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+    <row r="23" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>50</v>
       </c>
-      <c r="C23" s="31" t="str">
+      <c r="C23" s="17" t="str">
         <f>VLOOKUP(B23,'Full List'!A:B,2,0)</f>
         <v>The Promise - Sturgill Simpson</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="H24" s="32">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="H24" s="18">
         <f>H30</f>
         <v>0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="J24" s="21"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>79</v>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="27" t="str">
         <f>VLOOKUP(B25,'Full List'!A:B,2,0)</f>
         <v>The Captain And The Kid - Jimmy Buffett</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="H26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="E27" s="30">
+      <c r="H25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="E27" s="16">
         <v>18</v>
       </c>
-      <c r="F27" s="31" t="str">
+      <c r="F27" s="17" t="str">
         <f>VLOOKUP(E27,'Full List'!A:B,2,0)</f>
         <v>Breathe - David Arkenstone</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="41"/>
-      <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="F28" s="44">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="27"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29"/>
+      <c r="F28" s="30">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="H28" s="21"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
         <v>47</v>
       </c>
-      <c r="C29" s="31" t="str">
+      <c r="C29" s="17" t="str">
         <f>VLOOKUP(B29,'Full List'!A:B,2,0)</f>
         <v>Every Girl - Turnpike Troubadours</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="39"/>
-      <c r="H29" s="35"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="41"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="28"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>82</v>
       </c>
-      <c r="C31" s="41" t="str">
+      <c r="C31" s="27" t="str">
         <f>VLOOKUP(B31,'Full List'!A:B,2,0)</f>
         <v>Sergio Leone Suite: Main Theme from "Once Upon a Time in the West" - Ennio Morricone</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="42"/>
-      <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="E33" s="30">
+      <c r="D31" s="20"/>
+      <c r="E31" s="28"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="E33" s="16">
         <v>7</v>
       </c>
-      <c r="F33" s="31" t="str">
+      <c r="F33" s="17" t="str">
         <f>VLOOKUP(E33,'Full List'!A:B,2,0)</f>
         <v>Mrs. Potters Lullaby - Counting Crows</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
-      <c r="F34" s="44">
+      <c r="L33" s="25"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="F34" s="30">
         <f>F36</f>
         <v>0</v>
       </c>
-      <c r="L34" s="39"/>
-    </row>
-    <row r="35" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>58</v>
       </c>
-      <c r="C35" s="31" t="str">
+      <c r="C35" s="17" t="str">
         <f>VLOOKUP(B35,'Full List'!A:B,2,0)</f>
         <v>Easton &amp; Main - Turnpike Troubadours</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="L35" s="39"/>
-    </row>
-    <row r="36" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="H36" s="44">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="H36" s="30">
         <f>H42</f>
         <v>0</v>
       </c>
-      <c r="L36" s="39"/>
-    </row>
-    <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>71</v>
       </c>
-      <c r="C37" s="41" t="str">
+      <c r="C37" s="27" t="str">
         <f>VLOOKUP(B37,'Full List'!A:B,2,0)</f>
         <v>Already Gone - Slaid Cleaves</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="42"/>
-      <c r="H37" s="39"/>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="H38" s="39"/>
-      <c r="L38" s="39"/>
-    </row>
-    <row r="39" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="E39" s="30">
+      <c r="D37" s="20"/>
+      <c r="E37" s="28"/>
+      <c r="H37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="H38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="E39" s="16">
         <v>26</v>
       </c>
-      <c r="F39" s="31" t="str">
+      <c r="F39" s="17" t="str">
         <f>VLOOKUP(E39,'Full List'!A:B,2,0)</f>
         <v>Hey Ladies - Beastie Boys</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="31"/>
-      <c r="L39" s="39"/>
-    </row>
-    <row r="40" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
-      <c r="F40" s="44">
+      <c r="H39" s="25"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="29"/>
+      <c r="F40" s="30">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="J40" s="44">
+      <c r="H40" s="25"/>
+      <c r="J40" s="30">
         <f>J50</f>
         <v>0</v>
       </c>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>39</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="17" t="str">
         <f>VLOOKUP(B41,'Full List'!A:B,2,0)</f>
         <v>Shake Your Rump - Beastie Boys</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="L41" s="39"/>
-    </row>
-    <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
-      <c r="J42" s="39"/>
-      <c r="L42" s="39"/>
-    </row>
-    <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="J41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="28"/>
+      <c r="J42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>90</v>
       </c>
-      <c r="C43" s="41" t="str">
+      <c r="C43" s="27" t="str">
         <f>VLOOKUP(B43,'Full List'!A:B,2,0)</f>
         <v>Amarillo By Morning - George Strait</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="42"/>
-      <c r="J43" s="39"/>
-      <c r="L43" s="39"/>
-    </row>
-    <row r="44" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="J44" s="39"/>
-      <c r="L44" s="39"/>
-    </row>
-    <row r="45" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-      <c r="E45" s="30">
+      <c r="D43" s="20"/>
+      <c r="E43" s="28"/>
+      <c r="J43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="29"/>
+      <c r="J44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="E45" s="16">
         <v>10</v>
       </c>
-      <c r="F45" s="31" t="str">
+      <c r="F45" s="17" t="str">
         <f>VLOOKUP(E45,'Full List'!A:B,2,0)</f>
         <v>Jack Blue - Chris Knight</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="F46" s="44">
+      <c r="J45" s="25"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="29"/>
+      <c r="F46" s="30">
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33">
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>55</v>
       </c>
-      <c r="C47" s="31" t="str">
+      <c r="C47" s="17" t="str">
         <f>VLOOKUP(B47,'Full List'!A:B,2,0)</f>
         <v>Invisible Touch - Genesis</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="H48" s="44">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="H48" s="30">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="J48" s="39"/>
-    </row>
-    <row r="49" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
         <v>74</v>
       </c>
-      <c r="C49" s="41" t="str">
+      <c r="C49" s="27" t="str">
         <f>VLOOKUP(B49,'Full List'!A:B,2,0)</f>
         <v>C.R.E.A.M. - Wu-Tang Clan</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="42"/>
-      <c r="H49" s="39"/>
-      <c r="J49" s="39"/>
-    </row>
-    <row r="50" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
-      <c r="E51" s="30">
+      <c r="D49" s="20"/>
+      <c r="E49" s="28"/>
+      <c r="H49" s="25"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="E51" s="16">
         <v>23</v>
       </c>
-      <c r="F51" s="31" t="str">
+      <c r="F51" s="17" t="str">
         <f>VLOOKUP(E51,'Full List'!A:B,2,0)</f>
         <v>God's Plan - Drake</v>
       </c>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="2:10" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="43"/>
-      <c r="F52" s="44">
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="2:10" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="29"/>
+      <c r="F52" s="30">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="2:10" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:10" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>42</v>
       </c>
-      <c r="C53" s="31" t="str">
+      <c r="C53" s="17" t="str">
         <f>VLOOKUP(B53,'Full List'!A:B,2,0)</f>
         <v>Still Be Mine - Slaid Cleaves</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>87</v>
       </c>
-      <c r="C55" s="41" t="str">
+      <c r="C55" s="27" t="str">
         <f>VLOOKUP(B55,'Full List'!A:B,2,0)</f>
         <v>Beeswing - Richard Thompson</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="42"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N4"/>
     <mergeCell ref="B1:C4"/>
     <mergeCell ref="D1:F4"/>
     <mergeCell ref="G1:H4"/>
     <mergeCell ref="I1:J4"/>
     <mergeCell ref="K1:L4"/>
-    <mergeCell ref="M1:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="159" priority="72">
@@ -10213,7 +10263,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39" xr:uid="{8F0481DD-95AA-4F6F-830C-031C2AB78EE1}">
       <formula1>$H$35:$H$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{946D5FA9-247B-43AA-AB5C-060F5BB577B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{946D5FA9-247B-43AA-AB5C-060F5BB577B7}">
       <formula1>$F$39:$F$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{65103D12-7384-414F-BE6D-A6245EE34004}">
@@ -10231,7 +10281,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J27" xr:uid="{84FCA4EF-0268-4B77-948B-1A9A27F8B882}">
       <formula1>$H$23:$H$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30" xr:uid="{623938D2-704A-436E-8F3F-D821761A79BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29" xr:uid="{623938D2-704A-436E-8F3F-D821761A79BA}">
       <formula1>$F$27:$F$28</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30" xr:uid="{39751695-B0C7-405B-BBB7-0AB6A1D4F30E}">
@@ -10272,8 +10322,8 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N1:N1048576"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10296,626 +10346,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="30">
+      <c r="A4" s="10"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="17" t="str">
         <f>VLOOKUP(E7,'Full List'!A:B,2,0)</f>
         <v>LOVE. FEAT. ZACARI. - Kendrick Lamar</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="32">
+    <row r="8" spans="1:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="18">
         <f>F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+    <row r="9" spans="1:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>62</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="17" t="str">
         <f>VLOOKUP(B9,'Full List'!A:B,2,0)</f>
         <v>Truck Stop in La Grange - Dale Watson</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="H10" s="32">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="H10" s="18">
         <f>H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>67</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="27" t="str">
         <f>VLOOKUP(B11,'Full List'!A:B,2,0)</f>
         <v>Once - Pearl Jam</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="42"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>30</v>
       </c>
-      <c r="C13" s="31" t="str">
+      <c r="C13" s="17" t="str">
         <f>VLOOKUP(B13,'Full List'!A:B,2,0)</f>
         <v>A Pirate Looks At Forty - Jimmy Buffett</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="37"/>
-      <c r="H14" s="35"/>
-      <c r="J14" s="32">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="18">
         <f>J27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>99</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="27" t="str">
         <f>VLOOKUP(B15,'Full List'!A:B,2,0)</f>
         <v>What Else Would You Have Me Be? - Lucero</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="32">
+      <c r="D15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="18">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="H15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>35</v>
       </c>
-      <c r="C17" s="31" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(B17,'Full List'!A:B,2,0)</f>
         <v>Ni**as In Paris - JAY Z</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>94</v>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="27" t="str">
         <f>VLOOKUP(B19,'Full List'!A:B,2,0)</f>
         <v>A Tornado Warning - Turnpike Troubadours</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="42"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="E21" s="30">
+      <c r="D19" s="20"/>
+      <c r="E19" s="28"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="E21" s="16">
         <v>14</v>
       </c>
-      <c r="F21" s="31" t="str">
+      <c r="F21" s="17" t="str">
         <f>VLOOKUP(E21,'Full List'!A:B,2,0)</f>
         <v>Long Hot Summer Day - Turnpike Troubadours</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43"/>
-      <c r="F22" s="44">
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="29"/>
+      <c r="F22" s="30">
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="L22" s="44">
+      <c r="J22" s="21"/>
+      <c r="L22" s="30">
         <f>L45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+    <row r="23" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>51</v>
       </c>
-      <c r="C23" s="31" t="str">
+      <c r="C23" s="17" t="str">
         <f>VLOOKUP(B23,'Full List'!A:B,2,0)</f>
         <v>Monster Mash - Bobby "Boris" Pickett &amp; The Crypt-Kickers</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="H24" s="32">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="H24" s="18">
         <f>H30</f>
         <v>0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="J24" s="21"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>78</v>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="27" t="str">
         <f>VLOOKUP(B25,'Full List'!A:B,2,0)</f>
         <v>Panda - Desiigner</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="H26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="E27" s="30">
+      <c r="H25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="E27" s="16">
         <v>19</v>
       </c>
-      <c r="F27" s="31" t="str">
+      <c r="F27" s="17" t="str">
         <f>VLOOKUP(E27,'Full List'!A:B,2,0)</f>
         <v>Holding On - The War On Drugs</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="41"/>
-      <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="F28" s="44">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="27"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29"/>
+      <c r="F28" s="30">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="2:12" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="H28" s="21"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="2:12" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
         <v>46</v>
       </c>
-      <c r="C29" s="31" t="str">
+      <c r="C29" s="17" t="str">
         <f>VLOOKUP(B29,'Full List'!A:B,2,0)</f>
         <v>Stronger - Kanye West</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="39"/>
-      <c r="H29" s="35"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="41"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="2:12" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="28"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="2:12" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>83</v>
       </c>
-      <c r="C31" s="41" t="str">
+      <c r="C31" s="27" t="str">
         <f>VLOOKUP(B31,'Full List'!A:B,2,0)</f>
         <v>Hallelujah - Jeff Buckley</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="42"/>
-      <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="2:12" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="E33" s="30">
+      <c r="D31" s="20"/>
+      <c r="E31" s="28"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="2:12" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="E33" s="16">
         <v>6</v>
       </c>
-      <c r="F33" s="31" t="str">
+      <c r="F33" s="17" t="str">
         <f>VLOOKUP(E33,'Full List'!A:B,2,0)</f>
         <v>Up All Night - The War On Drugs</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
-      <c r="F34" s="44">
+      <c r="L33" s="25"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="F34" s="30">
         <f>F36</f>
         <v>0</v>
       </c>
-      <c r="L34" s="39"/>
-    </row>
-    <row r="35" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>59</v>
       </c>
-      <c r="C35" s="31" t="str">
+      <c r="C35" s="17" t="str">
         <f>VLOOKUP(B35,'Full List'!A:B,2,0)</f>
         <v>Sweet Caroline - Neil Diamond</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="L35" s="39"/>
-    </row>
-    <row r="36" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="H36" s="44">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="H36" s="30">
         <f>H42</f>
         <v>0</v>
       </c>
-      <c r="L36" s="39"/>
-    </row>
-    <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>70</v>
       </c>
-      <c r="C37" s="41" t="str">
+      <c r="C37" s="27" t="str">
         <f>VLOOKUP(B37,'Full List'!A:B,2,0)</f>
         <v>Lost Horizons - Gin Blossoms</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="42"/>
-      <c r="H37" s="39"/>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="H38" s="39"/>
-      <c r="L38" s="39"/>
-    </row>
-    <row r="39" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="E39" s="30">
+      <c r="D37" s="20"/>
+      <c r="E37" s="28"/>
+      <c r="H37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="H38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="E39" s="16">
         <v>27</v>
       </c>
-      <c r="F39" s="31" t="str">
+      <c r="F39" s="17" t="str">
         <f>VLOOKUP(E39,'Full List'!A:B,2,0)</f>
         <v>Edge of Town - Middle Kids</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="31"/>
-      <c r="L39" s="39"/>
-    </row>
-    <row r="40" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
-      <c r="F40" s="44">
+      <c r="H39" s="25"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="29"/>
+      <c r="F40" s="30">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="J40" s="44">
+      <c r="H40" s="25"/>
+      <c r="J40" s="30">
         <f>J50</f>
         <v>0</v>
       </c>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>38</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="17" t="str">
         <f>VLOOKUP(B41,'Full List'!A:B,2,0)</f>
         <v>Fen of Shadows - Skeletonwitch</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="L41" s="39"/>
-    </row>
-    <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
-      <c r="J42" s="39"/>
-      <c r="L42" s="39"/>
-    </row>
-    <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="J41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="28"/>
+      <c r="J42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>91</v>
       </c>
-      <c r="C43" s="41" t="str">
+      <c r="C43" s="27" t="str">
         <f>VLOOKUP(B43,'Full List'!A:B,2,0)</f>
         <v>Reading: "I dreamt of you last night" (Carrington) - Mona Golabek</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="42"/>
-      <c r="J43" s="39"/>
-      <c r="L43" s="39"/>
-    </row>
-    <row r="44" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="J44" s="39"/>
-      <c r="L44" s="39"/>
-    </row>
-    <row r="45" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-      <c r="E45" s="30">
+      <c r="D43" s="20"/>
+      <c r="E43" s="28"/>
+      <c r="J43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="29"/>
+      <c r="J44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="E45" s="16">
         <v>11</v>
       </c>
-      <c r="F45" s="31" t="str">
+      <c r="F45" s="17" t="str">
         <f>VLOOKUP(E45,'Full List'!A:B,2,0)</f>
         <v>Sergio Leone Suite: Main Theme from "Once Upon a Time in America" - Ennio Morricone</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" spans="2:14" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="F46" s="44">
+      <c r="J45" s="25"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="2:14" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="29"/>
+      <c r="F46" s="30">
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33">
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>54</v>
       </c>
-      <c r="C47" s="31" t="str">
+      <c r="C47" s="17" t="str">
         <f>VLOOKUP(B47,'Full List'!A:B,2,0)</f>
         <v>I Turned You On - The Isley Brothers</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:14" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="H48" s="44">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="H48" s="30">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="J48" s="39"/>
-    </row>
-    <row r="49" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
         <v>75</v>
       </c>
-      <c r="C49" s="41" t="str">
+      <c r="C49" s="27" t="str">
         <f>VLOOKUP(B49,'Full List'!A:B,2,0)</f>
         <v>The Mother We Share - CHVRCHES</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="42"/>
-      <c r="H49" s="39"/>
-      <c r="J49" s="39"/>
-    </row>
-    <row r="50" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
-      <c r="E51" s="30">
+      <c r="D49" s="20"/>
+      <c r="E49" s="28"/>
+      <c r="H49" s="25"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="E51" s="16">
         <v>22</v>
       </c>
-      <c r="F51" s="31" t="str">
+      <c r="F51" s="17" t="str">
         <f>VLOOKUP(E51,'Full List'!A:B,2,0)</f>
         <v>The '59 Sound (Original Recording) - The Gaslight Anthem</v>
       </c>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="2:10" s="29" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="43"/>
-      <c r="F52" s="44">
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="2:10" s="15" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="29"/>
+      <c r="F52" s="30">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="2:10" s="29" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:10" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>43</v>
       </c>
-      <c r="C53" s="31" t="str">
+      <c r="C53" s="17" t="str">
         <f>VLOOKUP(B53,'Full List'!A:B,2,0)</f>
         <v>Great Expectations - The Gaslight Anthem</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="2:10" s="29" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:10" s="15" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>86</v>
       </c>
-      <c r="C55" s="41" t="str">
+      <c r="C55" s="27" t="str">
         <f>VLOOKUP(B55,'Full List'!A:B,2,0)</f>
         <v>Bring Da Ruckus - Wu-Tang Clan</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="42"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N4"/>
     <mergeCell ref="B1:C4"/>
     <mergeCell ref="D1:F4"/>
     <mergeCell ref="G1:H4"/>
     <mergeCell ref="I1:J4"/>
     <mergeCell ref="K1:L4"/>
-    <mergeCell ref="M1:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="79" priority="72">
@@ -11268,7 +11320,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30" xr:uid="{A8F67845-B926-4CFE-8B7E-3E8A325F9F02}">
       <formula1>$C$29:$C$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30" xr:uid="{67CD8876-4293-402B-AABF-8A502B58A219}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29" xr:uid="{67CD8876-4293-402B-AABF-8A502B58A219}">
       <formula1>$F$27:$F$28</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J27" xr:uid="{D5254606-C448-4118-8D44-7DCFEE8B7E87}">
@@ -11286,7 +11338,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{60E86D1E-ED3A-4969-A629-0FEA30B047B5}">
       <formula1>$F$33:$F$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{2BA867B7-7E8B-460F-8D5C-5AD606B372A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{2BA867B7-7E8B-460F-8D5C-5AD606B372A3}">
       <formula1>$F$39:$F$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39" xr:uid="{30E5BDC7-4B57-4C97-8935-27492BB7C9EC}">
@@ -11323,9 +11375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2059E5-1D5D-44DE-92DA-55971D97ECDF}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:H9"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11344,320 +11396,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14">
+      <c r="A11" s="10"/>
+      <c r="B11" s="37">
         <f>'Region 1'!N33</f>
         <v>0</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14">
+      <c r="C11" s="39">
+        <f>'Region 1'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="39">
         <f>'Region 3'!N33</f>
         <v>0</v>
       </c>
-      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="I15" s="25"/>
+      <c r="C15" s="46">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="47">
+        <f>J26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="6"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="26"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="26"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="26"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="26"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="26"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="C23" s="6"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="41">
         <f>'Region 2'!N33</f>
         <v>0</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="27">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="39">
         <f>'Region 4'!N33</f>
         <v>0</v>
       </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="19"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="19"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="15"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="41"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="42"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="2:10" ht="45" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D5:H9"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="I11:J14"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="B26:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="F21:F24"/>
-    <mergeCell ref="I26:J29"/>
     <mergeCell ref="B1:C4"/>
     <mergeCell ref="I1:J4"/>
     <mergeCell ref="D1:H4"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D5:H9"/>
+    <mergeCell ref="F17:F20"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:H9" xr:uid="{888D1CCD-308F-4BC7-835E-D234835AECF8}">
       <formula1>$F$17:$F$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F20" xr:uid="{70C7B1A2-6C5A-4E49-9873-56280643D98C}">
+      <formula1>$C$11:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F24" xr:uid="{7C292142-7F7E-4130-AE35-0F5965784351}">
+      <formula1>$J$11:$J$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
